--- a/SQL/practika/practika 2.0/Данные для семинара.xlsx
+++ b/SQL/practika/practika 2.0/Данные для семинара.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSC\SQL\practika\practika 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42545607-EFEF-41E7-8206-9CB2CCAF8462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B91A48-CDBA-4F99-BDE9-09D4F0A97984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="60">
   <si>
     <t>Общий список</t>
   </si>
@@ -283,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,11 +347,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,17 +420,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,8 +441,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2078,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34C3945-127D-4E65-B3E7-D4BB79AC735A}">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -2501,16 +2533,16 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="5">
@@ -2524,16 +2556,16 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="8">
@@ -2547,16 +2579,16 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="5">
@@ -2570,16 +2602,16 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="8">
@@ -2593,16 +2625,16 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="5">
@@ -2614,19 +2646,19 @@
       <c r="H30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="8">
@@ -2638,7 +2670,7 @@
       <c r="H31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
@@ -2653,20 +2685,20 @@
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3643,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C709874-13B1-4C65-88E9-47835273C190}">
-  <dimension ref="B1:M999"/>
+  <dimension ref="B1:M991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4068,45 +4100,45 @@
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>32916</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
+        <v>32916</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F27" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>43</v>
@@ -4114,118 +4146,245 @@
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>32916</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F28" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="33" t="s">
+      <c r="B29" s="34">
+        <v>2</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="35">
+        <v>37152</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36">
+        <v>3</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="37">
+        <v>30429</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="32">
+        <v>3</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38">
+        <v>4</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="39">
+        <v>35936</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="33">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="C32" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="8">
+      <c r="D32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="32">
+        <v>7</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="33">
         <v>8</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="33" t="s">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="C36" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="5">
+      <c r="D36" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="32">
         <v>9</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="33" t="s">
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="C37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="8">
+      <c r="D37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="33">
         <v>10</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5169,14 +5328,6 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5237,7 +5388,7 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -5246,7 +5397,7 @@
       <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -5731,13 +5882,13 @@
       <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>4</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5751,16 +5902,16 @@
       <c r="D30" s="4">
         <v>43972</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7968,7 +8119,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0206C30B-DAA6-45BC-98CB-D36CBC2C0D12}">
-  <dimension ref="B3:K35"/>
+  <dimension ref="B3:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -8353,38 +8504,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="23"/>
-    </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="24"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K32" s="25"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K33" s="26"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="23"/>
+      <c r="K34" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8395,16 +8525,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED29808-E2B7-40BD-A20C-396F78305FDF}">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -8945,13 +9075,13 @@
       <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>4</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8965,16 +9095,16 @@
       <c r="D32" s="4">
         <v>43972</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9956,7 +10086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA8222-D2BA-443B-9423-4F056EFDDD87}">
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -10388,16 +10518,16 @@
       <c r="D26" s="4">
         <v>43972</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11379,7 +11509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6697263-2F8D-49F5-B204-50AF0BB52717}">
   <dimension ref="B1:M997"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -11802,16 +11932,16 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="5">
@@ -11825,16 +11955,16 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="8">
@@ -11848,16 +11978,16 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="5">
@@ -11871,16 +12001,16 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="8">
@@ -11894,16 +12024,16 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="5">
@@ -11917,16 +12047,16 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="8">
